--- a/figures/chapter4/peak.xlsx
+++ b/figures/chapter4/peak.xlsx
@@ -203,7 +203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9313,7 +9312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18617,7 +18615,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -28838,7 +28836,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>